--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -91,12 +91,12 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>share</t>
@@ -1050,25 +1050,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6695278969957081</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L17">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1076,25 +1076,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6595744680851063</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1232,25 +1232,25 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5349544072948328</v>
+        <v>0.53125</v>
       </c>
       <c r="L24">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1258,25 +1258,25 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.53125</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="10:17">
